--- a/oficinas.xlsx
+++ b/oficinas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro.cerqueira\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uheejahhgcn6hw-my.sharepoint.com/personal/prest_pedro_cerqueira_car10_com_br/Documents/PROJETO EZZE/Ezze/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938683A9-3706-47C1-9882-38C2BEF53EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CE509925-A20A-4C54-84A4-529D6854AFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F525FF1-198D-44C4-AD39-4A7E8B80B650}"/>
   <bookViews>
-    <workbookView xWindow="3168" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{03A372B1-5C73-47D8-B626-991E1DD201B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03A372B1-5C73-47D8-B626-991E1DD201B4}"/>
   </bookViews>
   <sheets>
     <sheet name="MARCADORES" sheetId="1" r:id="rId1"/>
